--- a/spliced/walkingToRunning/2023-03-26_17-13-09/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_17-13-09/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.709100723266602</v>
+        <v>1.779657483100891</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.743788242340088</v>
+        <v>1.38677453994751</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.468018054962158</v>
+        <v>-1.217397570610046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5.7203369140625</v>
+        <v>2.709100723266602</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3437475264072418</v>
+        <v>-2.743788242340088</v>
       </c>
       <c r="C3" t="n">
-        <v>3.810650587081909</v>
+        <v>-2.468018054962158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-8.956077575683594</v>
+        <v>-5.7203369140625</v>
       </c>
       <c r="B4" t="n">
-        <v>1.97852897644043</v>
+        <v>-0.3437475264072418</v>
       </c>
       <c r="C4" t="n">
-        <v>4.961136341094971</v>
+        <v>3.810650587081909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.207361221313477</v>
+        <v>-8.956077575683594</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.980310916900635</v>
+        <v>1.97852897644043</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.333511352539062</v>
+        <v>4.961136341094971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.59355354309082</v>
+        <v>2.207361221313477</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.431167125701904</v>
+        <v>-4.980310916900635</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.101884365081787</v>
+        <v>-1.333511352539062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.505454063415527</v>
+        <v>4.59355354309082</v>
       </c>
       <c r="B7" t="n">
-        <v>11.77097225189209</v>
+        <v>-4.431167125701904</v>
       </c>
       <c r="C7" t="n">
-        <v>2.841259956359864</v>
+        <v>-5.101884365081787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.006541728973389</v>
+        <v>7.505454063415527</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7645269632339478</v>
+        <v>11.77097225189209</v>
       </c>
       <c r="C8" t="n">
-        <v>4.242082595825195</v>
+        <v>2.841259956359864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.868691921234131</v>
+        <v>-1.006541728973389</v>
       </c>
       <c r="B9" t="n">
-        <v>1.358012437820435</v>
+        <v>-0.7645269632339478</v>
       </c>
       <c r="C9" t="n">
-        <v>8.201138496398926</v>
+        <v>4.242082595825195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.022271394729614</v>
+        <v>-6.868691921234131</v>
       </c>
       <c r="B10" t="n">
-        <v>7.68461799621582</v>
+        <v>1.358012437820435</v>
       </c>
       <c r="C10" t="n">
-        <v>5.039966106414795</v>
+        <v>8.201138496398926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.139467477798462</v>
+        <v>-2.022271394729614</v>
       </c>
       <c r="B11" t="n">
-        <v>5.108808517456055</v>
+        <v>7.68461799621582</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.244845151901245</v>
+        <v>5.039966106414795</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.52274751663208</v>
+        <v>3.139467477798462</v>
       </c>
       <c r="B12" t="n">
-        <v>3.029944896697998</v>
+        <v>5.108808517456055</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.659233093261719</v>
+        <v>-2.244845151901245</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0374174155294895</v>
+        <v>6.52274751663208</v>
       </c>
       <c r="B13" t="n">
-        <v>1.209408044815064</v>
+        <v>3.029944896697998</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9377655982971193</v>
+        <v>-2.659233093261719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.538176536560059</v>
+        <v>0.0374174155294895</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.508614182472229</v>
+        <v>1.209408044815064</v>
       </c>
       <c r="C14" t="n">
-        <v>4.209059715270996</v>
+        <v>-0.9377655982971193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.125669956207275</v>
+        <v>-5.538176536560059</v>
       </c>
       <c r="B15" t="n">
-        <v>6.274208068847656</v>
+        <v>-1.508614182472229</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1872868090867996</v>
+        <v>4.209059715270996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.635614395141602</v>
+        <v>-6.125669956207275</v>
       </c>
       <c r="B16" t="n">
-        <v>9.974936485290527</v>
+        <v>6.274208068847656</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.00576114654541</v>
+        <v>-0.1872868090867996</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.5515775680542</v>
+        <v>-3.635614395141602</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.389905452728272</v>
+        <v>9.974936485290527</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.446180105209351</v>
+        <v>-6.00576114654541</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.352769613265991</v>
+        <v>10.5515775680542</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9100687503814696</v>
+        <v>-5.389905452728272</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.187037467956543</v>
+        <v>-2.446180105209351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.499742180109024</v>
+        <v>2.352769613265991</v>
       </c>
       <c r="B19" t="n">
-        <v>2.3364577293396</v>
+        <v>0.9100687503814696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.303800106048584</v>
+        <v>-1.187037467956543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-14.11355590820312</v>
+        <v>0.499742180109024</v>
       </c>
       <c r="B20" t="n">
-        <v>-14.84945392608643</v>
+        <v>2.3364577293396</v>
       </c>
       <c r="C20" t="n">
-        <v>3.268431186676025</v>
+        <v>0.303800106048584</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-14.11355590820312</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-14.84945392608643</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.268431186676025</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>6.44285249710083</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-5.062869071960449</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>7.707920551300049</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.4938832223415375</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-9.879995346069336</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3310975134372711</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6.862566947937012</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17.44670104980469</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.492054462432861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.584963321685791</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.4454802870750427</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.492385864257812</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-7.439141273498535</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.388273239135742</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10.04511070251465</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.835583806037903</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.65514183044434</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.548196077346802</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.2848250865936279</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-6.074337482452393</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.493201971054077</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7.885753154754639</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-7.940680980682373</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.813696384429932</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.459545493125916</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.23096264898777</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.083990097045898</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.29206657409668</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.709334373474121</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.162437200546265</v>
       </c>
     </row>
   </sheetData>
